--- a/eos/03.개발/bin로직검증.xlsx
+++ b/eos/03.개발/bin로직검증.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fframe\workspace\spark_scala\eos\03.개발\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95919F5C-F428-40C8-8631-D31156110549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156BB920-716E-4215-B85C-289BEF60B5A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1890" windowWidth="21600" windowHeight="12915" activeTab="1" xr2:uid="{F58AC098-11B1-4CBE-A29C-55E802085AE5}"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="18120" activeTab="1" xr2:uid="{F58AC098-11B1-4CBE-A29C-55E802085AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48FB41-5178-4CDD-ADC6-78A9106B9DF8}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <f>$C3*$C$1+$B3</f>
+        <f>$C3*$B$1+$B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="3"/>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:G14" si="0">$C4*$C$1+$B4</f>
+        <f t="shared" ref="F4:F14" si="0">$C4*$B$1+$B4</f>
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
@@ -1054,10 +1054,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1095,11 +1095,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <f>$C21*$C$19+$B21</f>
+        <f>$C21*$B$19+$B21</f>
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <f>($A21*$B$19*$C$19) + ($C21*$C$19+$B21)</f>
+        <f>($A21*$B$19*$C$19) + ($C21*$B$19+$B21)</f>
         <v>0</v>
       </c>
     </row>
@@ -1118,11 +1118,11 @@
         <v>1</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ref="F22:F32" si="1">$C22*$C$19+$B22</f>
+        <f t="shared" ref="F22:F32" si="1">$C22*$B$19+$B22</f>
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ref="G22:G44" si="2">($A22*$B$19*$C$19) + ($C22*$C$19+$B22)</f>
+        <f t="shared" ref="G22:G44" si="2">($A22*$B$19*$C$19) + ($C22*$B$19+$B22)</f>
         <v>1</v>
       </c>
     </row>
@@ -1587,5 +1587,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>